--- a/RS_Servers_2019/Server/cases/RS_Prolog_Testing_Results_GG_HH.xlsx
+++ b/RS_Servers_2019/Server/cases/RS_Prolog_Testing_Results_GG_HH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNA\Paradigmas\CursoLenguajesDeProgramacion2019\proyectos\rivescript\casos_de_prueba_15_noviembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LoLER\OneDrive - Universidad Nacional de Costa Rica\Documentos\Proyecto-Paradigmas-G03-3pm\RS_Servers_2019\Server\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C94682-CDC9-43FF-B397-2810296F553F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E439B76-E914-4995-9CFD-776C0BB49AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2CB91DDA-AFE2-49C8-89D6-9CDEEC332D48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2CB91DDA-AFE2-49C8-89D6-9CDEEC332D48}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_PrologSprint 15_Nov" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>CASO DE PRUEBA</t>
   </si>
@@ -115,6 +115,30 @@
   </si>
   <si>
     <t>70_ERR_invalid_star.rive</t>
+  </si>
+  <si>
+    <t>Error de semántica en el archivo.</t>
+  </si>
+  <si>
+    <t>Arreglar parser</t>
+  </si>
+  <si>
+    <t>Falta el Cosi</t>
+  </si>
+  <si>
+    <t>Error en el parser, un trigger no puede venir vacío.</t>
+  </si>
+  <si>
+    <t>Error en el parser, un trigger no tener el tag &lt;star&gt;.</t>
+  </si>
+  <si>
+    <t>Error en el parser, un trigger ocupa al menos una respuesta.</t>
+  </si>
+  <si>
+    <t>Error en el parser, la respuesta ocupa un trigger.</t>
+  </si>
+  <si>
+    <t>Error en el parser, error de sintaxis en el tag &lt;star&gt;.</t>
   </si>
 </sst>
 </file>
@@ -239,23 +263,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,39 +594,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E267D0A6-D457-49BF-9330-4411D6BEAD1E}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,9 +636,9 @@
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -624,12 +648,12 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <f>IF(B4=0,0,C4/20)*100</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -639,12 +663,12 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <f t="shared" ref="D5:D23" si="0">IF(B5=0,0,C5/20)*100</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -654,12 +678,12 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -669,42 +693,48 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -714,12 +744,12 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -729,12 +759,12 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -744,12 +774,12 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -759,12 +789,12 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -774,161 +804,185 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="12">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="12">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="12">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="12">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="12">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="6">
         <f>SUM(B4:B23)</f>
-        <v>20</v>
-      </c>
-      <c r="C24" s="9">
+        <v>12</v>
+      </c>
+      <c r="C24" s="6">
         <f>SUM(C4:C23)</f>
-        <v>20</v>
-      </c>
-      <c r="D24" s="10">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
         <f>SUM(D4:D23)</f>
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
